--- a/Documentation/Register_mapping.xlsx
+++ b/Documentation/Register_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\OneDrive\Documents\Git_Repos\Avionics-23-24\Firmware\QMA6100P_Arduino_Library\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4EF015-0753-4EA7-816E-2F879F547C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5705C408-43BB-4305-9917-7896B8189F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EB4B1BB4-54AA-4D61-BAD9-2DB916AA1D58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB4B1BB4-54AA-4D61-BAD9-2DB916AA1D58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
-  <si>
-    <t>QMA6100P</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
   <si>
     <t>Address</t>
   </si>
@@ -50,13 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>KX134</t>
-  </si>
-  <si>
     <t>0x00</t>
-  </si>
-  <si>
-    <t>Indicate the product version,. Used to identify the device</t>
   </si>
   <si>
     <t>CHIP ID&lt;7:0&gt;</t>
@@ -269,9 +282,6 @@
     <t>Interal</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Y_TH, YZ_TH_SEL</t>
   </si>
   <si>
@@ -378,13 +388,16 @@
   </si>
   <si>
     <t>0x3f</t>
+  </si>
+  <si>
+    <t>Indicate the product version, Used to identify the device</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,10 +435,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,6 +455,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,618 +838,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0A5C3-4345-4E7D-AAC4-09186E4CA0DA}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="42.75">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="71.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="71.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="71.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="42.75">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="71.25">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="28.5">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.5">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.5">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="28.5">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="28.5">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.5">
-      <c r="A29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="57">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5">
-      <c r="A31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="28.5">
-      <c r="A37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.5">
-      <c r="A38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28.5">
-      <c r="A39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="28.5">
-      <c r="A40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="85.5">
-      <c r="A41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="71.25">
-      <c r="A42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="28.5">
-      <c r="A43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.5">
-      <c r="A44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="28.5">
-      <c r="A45" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="28.5">
-      <c r="A46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="42.75">
-      <c r="A51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="42.75">
-      <c r="A52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.5">
-      <c r="A54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>112</v>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J145" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
